--- a/03.개발/가데이터/혜원_가데이터.xlsx
+++ b/03.개발/가데이터/혜원_가데이터.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>O형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910229-2433271</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +613,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -710,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
